--- a/raw/1966election.xlsx
+++ b/raw/1966election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF36D153-DB1F-7841-AC6F-0B3A1598C026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30B0432-FE87-C74B-9C8D-3A836A9E82DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16920" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6073" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6072" uniqueCount="1867">
   <si>
     <t>State</t>
   </si>
@@ -6488,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1102" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D1121" sqref="D1121"/>
+    <sheetView tabSelected="1" topLeftCell="C305" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -13731,8 +13731,8 @@
       <c r="C321" t="s">
         <v>41</v>
       </c>
-      <c r="D321" t="s">
-        <v>27</v>
+      <c r="D321">
+        <v>6</v>
       </c>
       <c r="E321" t="s">
         <v>404</v>
